--- a/biology/Botanique/LeRoy_Abrams/LeRoy_Abrams.xlsx
+++ b/biology/Botanique/LeRoy_Abrams/LeRoy_Abrams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LeRoy Abrams' (1874–1956) est un botaniste américain et auteur[1],[2]. Il était professeur de botanique à l'université Stanford[2]. Il a écrit et illustré une Flore illustrée des États du Pacifique en quatre volumes, le dernier volume étant publié à titre posthume, après compilation et édition par Roxanna Ferris[2].
-Lui et sa femme avaient une maison surplombant la vallée de Santa Clara[2]. Leur unique enfant, une fille, est décédée avant lui[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LeRoy Abrams' (1874–1956) est un botaniste américain et auteur,. Il était professeur de botanique à l'université Stanford. Il a écrit et illustré une Flore illustrée des États du Pacifique en quatre volumes, le dernier volume étant publié à titre posthume, après compilation et édition par Roxanna Ferris.
+Lui et sa femme avaient une maison surplombant la vallée de Santa Clara. Leur unique enfant, une fille, est décédée avant lui.
 </t>
         </is>
       </c>
